--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1046" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C7DE32D-AEB6-4F06-AFD5-0383F67C504B}"/>
+  <xr:revisionPtr revIDLastSave="1052" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F21958C-4EBB-4BB6-A26E-87B35190F91D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="159">
   <si>
     <t>Proyecto</t>
   </si>
@@ -502,6 +502,15 @@
   </si>
   <si>
     <t>Chata</t>
+  </si>
+  <si>
+    <t>E/P MALAGA 1</t>
+  </si>
+  <si>
+    <t>A.S/0031</t>
+  </si>
+  <si>
+    <t>A.S/0031-224</t>
   </si>
 </sst>
 </file>
@@ -935,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31B70A-7AC0-4170-8EDB-19BFB91944E2}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1570,6 +1579,29 @@
         <v>45594</v>
       </c>
       <c r="G27" s="8">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="8">
+        <v>45594</v>
+      </c>
+      <c r="G28" s="8">
         <v>45600</v>
       </c>
     </row>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1052" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F21958C-4EBB-4BB6-A26E-87B35190F91D}"/>
+  <xr:revisionPtr revIDLastSave="1060" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7992B44B-FEAA-45C1-8D39-52D9225811AC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024-2" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
   <si>
     <t>Proyecto</t>
   </si>
@@ -511,6 +511,15 @@
   </si>
   <si>
     <t>A.S/0031-224</t>
+  </si>
+  <si>
+    <t>EP TASA 17 ARBOLADURA</t>
+  </si>
+  <si>
+    <t>GP/75</t>
+  </si>
+  <si>
+    <t>GP/75-224</t>
   </si>
 </sst>
 </file>
@@ -944,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31B70A-7AC0-4170-8EDB-19BFB91944E2}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1603,6 +1612,26 @@
       </c>
       <c r="G28" s="8">
         <v>45600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="8">
+        <v>45638</v>
+      </c>
+      <c r="G29" s="8">
+        <v>45646</v>
       </c>
     </row>
   </sheetData>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1060" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7992B44B-FEAA-45C1-8D39-52D9225811AC}"/>
+  <xr:revisionPtr revIDLastSave="1061" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15087FC2-ADDD-44EC-A0AD-1D9B812811E3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024-2" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="162">
   <si>
     <t>Proyecto</t>
   </si>
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31B70A-7AC0-4170-8EDB-19BFB91944E2}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1615,6 +1615,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>159</v>
       </c>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1061" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15087FC2-ADDD-44EC-A0AD-1D9B812811E3}"/>
+  <xr:revisionPtr revIDLastSave="1098" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F460E7F4-0B64-4F4C-9ABD-FF6D06EFD96A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-2" sheetId="8" r:id="rId1"/>
-    <sheet name="2024-1" sheetId="6" r:id="rId2"/>
+    <sheet name="2025-1" sheetId="9" r:id="rId1"/>
+    <sheet name="2024-2" sheetId="8" r:id="rId2"/>
+    <sheet name="2024-1" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="180">
   <si>
     <t>Proyecto</t>
   </si>
@@ -520,6 +521,60 @@
   </si>
   <si>
     <t>GP/75-224</t>
+  </si>
+  <si>
+    <t>2025-1</t>
+  </si>
+  <si>
+    <t>GO/44-125</t>
+  </si>
+  <si>
+    <t>GO/44</t>
+  </si>
+  <si>
+    <t>CHATA SUPE</t>
+  </si>
+  <si>
+    <t>GO/42</t>
+  </si>
+  <si>
+    <t>GO/42-125</t>
+  </si>
+  <si>
+    <t>GO/43</t>
+  </si>
+  <si>
+    <t>CHATA FERROLES 4</t>
+  </si>
+  <si>
+    <t>GO/43-125</t>
+  </si>
+  <si>
+    <t>EP TASA 38</t>
+  </si>
+  <si>
+    <t>GP/77</t>
+  </si>
+  <si>
+    <t>GP/77-125</t>
+  </si>
+  <si>
+    <t>GP/78</t>
+  </si>
+  <si>
+    <t>EP TASA 310</t>
+  </si>
+  <si>
+    <t>GP/78-125</t>
+  </si>
+  <si>
+    <t>EP TASA 17</t>
+  </si>
+  <si>
+    <t>GP/76</t>
+  </si>
+  <si>
+    <t>GP/76-125</t>
   </si>
 </sst>
 </file>
@@ -952,11 +1007,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2EAE93-250F-45C5-8452-04778CDF69D5}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="27" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31B70A-7AC0-4170-8EDB-19BFB91944E2}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1631,10 +1897,10 @@
         <v>161</v>
       </c>
       <c r="F29" s="8">
-        <v>45638</v>
+        <v>45637</v>
       </c>
       <c r="G29" s="8">
-        <v>45646</v>
+        <v>45644</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE99D356-A7AD-4D03-BA66-90BB63C41FBC}">
   <dimension ref="A1:G27"/>
   <sheetViews>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1098" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F460E7F4-0B64-4F4C-9ABD-FF6D06EFD96A}"/>
+  <xr:revisionPtr revIDLastSave="1111" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26A8CEAD-A76B-490D-BF60-CCEAFD5057CD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="186">
   <si>
     <t>Proyecto</t>
   </si>
@@ -575,6 +575,24 @@
   </si>
   <si>
     <t>GP/76-125</t>
+  </si>
+  <si>
+    <t>EP TASA 418</t>
+  </si>
+  <si>
+    <t>GP/80</t>
+  </si>
+  <si>
+    <t>GP/80-125</t>
+  </si>
+  <si>
+    <t>EP TASA 412</t>
+  </si>
+  <si>
+    <t>GP/79</t>
+  </si>
+  <si>
+    <t>GP/79-125</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1029,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,10 +1164,38 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1111" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26A8CEAD-A76B-490D-BF60-CCEAFD5057CD}"/>
+  <xr:revisionPtr revIDLastSave="1119" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F52429D1-241E-4684-9876-6795A1465A1C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-1" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="186">
   <si>
     <t>Proyecto</t>
   </si>
@@ -1029,12 +1029,12 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1198,7 +1198,21 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="1"/>
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
@@ -1267,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31B70A-7AC0-4170-8EDB-19BFB91944E2}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1119" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F52429D1-241E-4684-9876-6795A1465A1C}"/>
+  <xr:revisionPtr revIDLastSave="1131" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0E137AE-F881-4EA7-993F-4818C38DE229}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="192">
   <si>
     <t>Proyecto</t>
   </si>
@@ -593,6 +593,24 @@
   </si>
   <si>
     <t>GP/79-125</t>
+  </si>
+  <si>
+    <t>A.S/0032-125</t>
+  </si>
+  <si>
+    <t>A.S/0032</t>
+  </si>
+  <si>
+    <t>REM TRITON</t>
+  </si>
+  <si>
+    <t>EP MODESTO 8</t>
+  </si>
+  <si>
+    <t>A.S/0033-125</t>
+  </si>
+  <si>
+    <t>A.S/0033</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1047,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,10 +1233,38 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1131" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0E137AE-F881-4EA7-993F-4818C38DE229}"/>
+  <xr:revisionPtr revIDLastSave="1162" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE0BAB7D-7CD1-4D43-9ED6-E4E05FC64A2B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-1" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="198">
   <si>
     <t>Proyecto</t>
   </si>
@@ -611,6 +611,24 @@
   </si>
   <si>
     <t>A.S/0033</t>
+  </si>
+  <si>
+    <t>A.S/0034</t>
+  </si>
+  <si>
+    <t>A.S/0034-125</t>
+  </si>
+  <si>
+    <t>MODESTO 7</t>
+  </si>
+  <si>
+    <t>E/P TERESA</t>
+  </si>
+  <si>
+    <t>A.S/0035-125</t>
+  </si>
+  <si>
+    <t>A.S/0035</t>
   </si>
 </sst>
 </file>
@@ -1047,13 +1065,14 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.109375" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1267,10 +1286,38 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1162" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE0BAB7D-7CD1-4D43-9ED6-E4E05FC64A2B}"/>
+  <xr:revisionPtr revIDLastSave="1168" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{885910A9-0BB2-42D7-9296-9F15F0A92937}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-1" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="201">
   <si>
     <t>Proyecto</t>
   </si>
@@ -629,6 +629,15 @@
   </si>
   <si>
     <t>A.S/0035</t>
+  </si>
+  <si>
+    <t>EP TASA 416 (ARBOLADURA)</t>
+  </si>
+  <si>
+    <t>GP/81-125</t>
+  </si>
+  <si>
+    <t>GP/81</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1074,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1320,7 +1329,21 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
+      <c r="A15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1168" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{885910A9-0BB2-42D7-9296-9F15F0A92937}"/>
+  <xr:revisionPtr revIDLastSave="1175" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11D48F05-020A-4D66-9AE7-251C3A8EE50E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-1" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="203">
   <si>
     <t>Proyecto</t>
   </si>
@@ -638,6 +638,12 @@
   </si>
   <si>
     <t>GP/81</t>
+  </si>
+  <si>
+    <t>GP/82-125</t>
+  </si>
+  <si>
+    <t>GP/82</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1080,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,7 +1352,21 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1175" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11D48F05-020A-4D66-9AE7-251C3A8EE50E}"/>
+  <xr:revisionPtr revIDLastSave="1183" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7A815E9-C604-4A57-A9E7-6DB933B962F1}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="206">
   <si>
     <t>Proyecto</t>
   </si>
@@ -592,9 +592,6 @@
     <t>GP/79</t>
   </si>
   <si>
-    <t>GP/79-125</t>
-  </si>
-  <si>
     <t>A.S/0032-125</t>
   </si>
   <si>
@@ -644,6 +641,18 @@
   </si>
   <si>
     <t>GP/82</t>
+  </si>
+  <si>
+    <t>GP/79-125-01</t>
+  </si>
+  <si>
+    <t>EP MACABI 9</t>
+  </si>
+  <si>
+    <t>A.S/0036</t>
+  </si>
+  <si>
+    <t>A.S/0036-125</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1089,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1246,7 +1255,7 @@
         <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1271,16 +1280,16 @@
         <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1288,16 +1297,16 @@
         <v>162</v>
       </c>
       <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" t="s">
         <v>189</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1305,16 +1314,16 @@
         <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" t="s">
         <v>192</v>
-      </c>
-      <c r="E13" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1322,16 +1331,16 @@
         <v>162</v>
       </c>
       <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" t="s">
         <v>195</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1339,16 +1348,16 @@
         <v>162</v>
       </c>
       <c r="B15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" t="s">
         <v>198</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E15" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1362,49 +1371,63 @@
         <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
     </row>
   </sheetData>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1183" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7A815E9-C604-4A57-A9E7-6DB933B962F1}"/>
+  <xr:revisionPtr revIDLastSave="1196" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5A161E8-09AD-49C0-9FA0-EEB7414BD3D5}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-1" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="212">
   <si>
     <t>Proyecto</t>
   </si>
@@ -653,6 +653,24 @@
   </si>
   <si>
     <t>A.S/0036-125</t>
+  </si>
+  <si>
+    <t>EP TASA 413 ARBOLADURA</t>
+  </si>
+  <si>
+    <t>GP/83</t>
+  </si>
+  <si>
+    <t>GP/83-125</t>
+  </si>
+  <si>
+    <t>GP/84</t>
+  </si>
+  <si>
+    <t>EP TASA 424 ARBOLADURA</t>
+  </si>
+  <si>
+    <t>GP/84-125</t>
   </si>
 </sst>
 </file>
@@ -1089,14 +1107,14 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.109375" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1395,10 +1413,38 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
@@ -1440,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31B70A-7AC0-4170-8EDB-19BFB91944E2}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:G29"/>
     </sheetView>
   </sheetViews>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1196" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5A161E8-09AD-49C0-9FA0-EEB7414BD3D5}"/>
+  <xr:revisionPtr revIDLastSave="1222" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{081DC961-B06E-4AC9-8A1C-562C1FBA389A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-1" sheetId="9" r:id="rId1"/>
-    <sheet name="2024-2" sheetId="8" r:id="rId2"/>
-    <sheet name="2024-1" sheetId="6" r:id="rId3"/>
+    <sheet name="2025-2" sheetId="10" r:id="rId1"/>
+    <sheet name="2025-1" sheetId="9" r:id="rId2"/>
+    <sheet name="2024-2" sheetId="8" r:id="rId3"/>
+    <sheet name="2024-1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="221">
   <si>
     <t>Proyecto</t>
   </si>
@@ -671,6 +672,33 @@
   </si>
   <si>
     <t>GP/84-125</t>
+  </si>
+  <si>
+    <t>2025-2</t>
+  </si>
+  <si>
+    <t>CHA. PISCO</t>
+  </si>
+  <si>
+    <t>GO/46</t>
+  </si>
+  <si>
+    <t>GO/47</t>
+  </si>
+  <si>
+    <t>A.S/0039</t>
+  </si>
+  <si>
+    <t>REM CUAJONE</t>
+  </si>
+  <si>
+    <t>A.S/0039-225</t>
+  </si>
+  <si>
+    <t>GO/46-225</t>
+  </si>
+  <si>
+    <t>GO/47-225</t>
   </si>
 </sst>
 </file>
@@ -1103,11 +1131,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C3AA09-1F79-4F4D-BB06-15A57FFB3161}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2EAE93-250F-45C5-8452-04778CDF69D5}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1482,11 +1602,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31B70A-7AC0-4170-8EDB-19BFB91944E2}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29:G29"/>
     </sheetView>
   </sheetViews>
@@ -2174,7 +2294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE99D356-A7AD-4D03-BA66-90BB63C41FBC}">
   <dimension ref="A1:G27"/>
   <sheetViews>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1222" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{081DC961-B06E-4AC9-8A1C-562C1FBA389A}"/>
+  <xr:revisionPtr revIDLastSave="1223" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B847A537-99F3-43B8-95D3-DAD8EF4DFD8A}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,9 +677,6 @@
     <t>2025-2</t>
   </si>
   <si>
-    <t>CHA. PISCO</t>
-  </si>
-  <si>
     <t>GO/46</t>
   </si>
   <si>
@@ -699,6 +696,9 @@
   </si>
   <si>
     <t>GO/47-225</t>
+  </si>
+  <si>
+    <t>CHATA PISCO</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,16 +1171,16 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1194,10 +1194,10 @@
         <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1205,16 +1205,16 @@
         <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1223" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B847A537-99F3-43B8-95D3-DAD8EF4DFD8A}"/>
+  <xr:revisionPtr revIDLastSave="1239" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1D7FE06-787A-4BA9-91EA-6B888F69021A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-2" sheetId="10" r:id="rId1"/>
     <sheet name="2025-1" sheetId="9" r:id="rId2"/>
     <sheet name="2024-2" sheetId="8" r:id="rId3"/>
     <sheet name="2024-1" sheetId="6" r:id="rId4"/>
+    <sheet name="2023-2" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="222">
   <si>
     <t>Proyecto</t>
   </si>
@@ -699,6 +700,9 @@
   </si>
   <si>
     <t>CHATA PISCO</t>
+  </si>
+  <si>
+    <t>2023-2</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C3AA09-1F79-4F4D-BB06-15A57FFB3161}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2299,7 +2303,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2756,4 +2760,81 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D469D-263F-4468-BBFB-44CB0C55D551}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1239" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1D7FE06-787A-4BA9-91EA-6B888F69021A}"/>
+  <xr:revisionPtr revIDLastSave="1246" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F5C0098-5913-4D9F-855A-19FB6D50B4C7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-2" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="225">
   <si>
     <t>Proyecto</t>
   </si>
@@ -703,6 +703,15 @@
   </si>
   <si>
     <t>2023-2</t>
+  </si>
+  <si>
+    <t>EP TASA 34</t>
+  </si>
+  <si>
+    <t>GP/86-225</t>
+  </si>
+  <si>
+    <t>GP/86</t>
   </si>
 </sst>
 </file>
@@ -1136,15 +1145,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C3AA09-1F79-4F4D-BB06-15A57FFB3161}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1219,6 +1229,23 @@
       </c>
       <c r="E4" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1231,7 +1258,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2766,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D469D-263F-4468-BBFB-44CB0C55D551}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1246" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F5C0098-5913-4D9F-855A-19FB6D50B4C7}"/>
+  <xr:revisionPtr revIDLastSave="1276" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D73D5118-DA93-4582-9D1F-427CDA774B56}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-2" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="237">
   <si>
     <t>Proyecto</t>
   </si>
@@ -712,6 +712,42 @@
   </si>
   <si>
     <t>GP/86</t>
+  </si>
+  <si>
+    <t>REM NAYLAMP</t>
+  </si>
+  <si>
+    <t>EP TIBURON 2</t>
+  </si>
+  <si>
+    <t>REM CASTOR</t>
+  </si>
+  <si>
+    <t>A.S/0042</t>
+  </si>
+  <si>
+    <t>A.S/0042-225</t>
+  </si>
+  <si>
+    <t>A.S/0038</t>
+  </si>
+  <si>
+    <t>A.S/0043</t>
+  </si>
+  <si>
+    <t>A.S/0043-225</t>
+  </si>
+  <si>
+    <t>A.S/0038-125</t>
+  </si>
+  <si>
+    <t>EP AURELIA</t>
+  </si>
+  <si>
+    <t>A.S/0044</t>
+  </si>
+  <si>
+    <t>A.S/0044-225</t>
   </si>
 </sst>
 </file>
@@ -1145,16 +1181,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C3AA09-1F79-4F4D-BB06-15A57FFB3161}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1246,6 +1282,74 @@
       </c>
       <c r="E5" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1276" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D73D5118-DA93-4582-9D1F-427CDA774B56}"/>
+  <xr:revisionPtr revIDLastSave="1295" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C70B367B-8977-425D-A660-B32263937851}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-2" sheetId="10" r:id="rId1"/>
-    <sheet name="2025-1" sheetId="9" r:id="rId2"/>
-    <sheet name="2024-2" sheetId="8" r:id="rId3"/>
-    <sheet name="2024-1" sheetId="6" r:id="rId4"/>
-    <sheet name="2023-2" sheetId="11" r:id="rId5"/>
+    <sheet name="desguace" sheetId="12" r:id="rId2"/>
+    <sheet name="2025-1" sheetId="9" r:id="rId3"/>
+    <sheet name="2024-2" sheetId="8" r:id="rId4"/>
+    <sheet name="2024-1" sheetId="6" r:id="rId5"/>
+    <sheet name="2023-2" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="247">
   <si>
     <t>Proyecto</t>
   </si>
@@ -748,6 +749,36 @@
   </si>
   <si>
     <t>A.S/0044-225</t>
+  </si>
+  <si>
+    <t>desguace</t>
+  </si>
+  <si>
+    <t>CHATA SARIMON (DESGUACE)</t>
+  </si>
+  <si>
+    <t>GO/17</t>
+  </si>
+  <si>
+    <t>GO/17-221</t>
+  </si>
+  <si>
+    <t>CHATA GAVIOTA (DESGUACE)</t>
+  </si>
+  <si>
+    <t>GO/18</t>
+  </si>
+  <si>
+    <t>GO/18-221</t>
+  </si>
+  <si>
+    <t>CHATA FERROLES 3 (DESGUACE)</t>
+  </si>
+  <si>
+    <t>GO/30</t>
+  </si>
+  <si>
+    <t>GO/30-221</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C3AA09-1F79-4F4D-BB06-15A57FFB3161}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,6 +1389,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A90B3A0-EF1B-440D-B3D5-8495F9519A3D}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="A5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2EAE93-250F-45C5-8452-04778CDF69D5}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -1737,7 +1861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31B70A-7AC0-4170-8EDB-19BFB91944E2}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -2429,7 +2553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE99D356-A7AD-4D03-BA66-90BB63C41FBC}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -2893,7 +3017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D469D-263F-4468-BBFB-44CB0C55D551}">
   <dimension ref="A1:G3"/>
   <sheetViews>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1295" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C70B367B-8977-425D-A660-B32263937851}"/>
+  <xr:revisionPtr revIDLastSave="1307" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{155B979C-954D-484B-8D0A-151E33CCD462}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="254">
   <si>
     <t>Proyecto</t>
   </si>
@@ -779,6 +779,27 @@
   </si>
   <si>
     <t>GO/30-221</t>
+  </si>
+  <si>
+    <t>E/P. CAPRICORNIO 7</t>
+  </si>
+  <si>
+    <t>Embarcación</t>
+  </si>
+  <si>
+    <t>AS/42</t>
+  </si>
+  <si>
+    <t>AS/42-121</t>
+  </si>
+  <si>
+    <t>E/P. CAPRICORNIO 9</t>
+  </si>
+  <si>
+    <t>AS/43</t>
+  </si>
+  <si>
+    <t>AS/43-121</t>
   </si>
 </sst>
 </file>
@@ -881,7 +902,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -908,6 +929,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1390,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A90B3A0-EF1B-440D-B3D5-8495F9519A3D}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="A5:G5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1473,6 +1497,40 @@
       </c>
       <c r="E4" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1307" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{155B979C-954D-484B-8D0A-151E33CCD462}"/>
+  <xr:revisionPtr revIDLastSave="1318" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B6C9B10-F29E-4799-80D2-5C5EAE711BCF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-2" sheetId="10" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="257">
   <si>
     <t>Proyecto</t>
   </si>
@@ -800,6 +800,15 @@
   </si>
   <si>
     <t>AS/43-121</t>
+  </si>
+  <si>
+    <t>EP TASA 35</t>
+  </si>
+  <si>
+    <t>GP/87</t>
+  </si>
+  <si>
+    <t>GP/87-225</t>
   </si>
 </sst>
 </file>
@@ -902,7 +911,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -929,9 +938,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C3AA09-1F79-4F4D-BB06-15A57FFB3161}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,16 +1350,16 @@
         <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1361,16 +1367,16 @@
         <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1378,16 +1384,16 @@
         <v>212</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1395,15 +1401,32 @@
         <v>212</v>
       </c>
       <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
         <v>235</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>236</v>
       </c>
     </row>
@@ -1416,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A90B3A0-EF1B-440D-B3D5-8495F9519A3D}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1506,7 +1529,7 @@
       <c r="B5" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D5" t="s">
@@ -1523,7 +1546,7 @@
       <c r="B6" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D6" t="s">

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1318" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B6C9B10-F29E-4799-80D2-5C5EAE711BCF}"/>
+  <xr:revisionPtr revIDLastSave="1335" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FEA7CD0-D1A1-4EBA-8CED-E4FBDDF2D3D7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-2" sheetId="10" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="263">
   <si>
     <t>Proyecto</t>
   </si>
@@ -809,6 +809,24 @@
   </si>
   <si>
     <t>GP/87-225</t>
+  </si>
+  <si>
+    <t>EP RIMAC</t>
+  </si>
+  <si>
+    <t>A.S/0045</t>
+  </si>
+  <si>
+    <t>A.S/0045-225</t>
+  </si>
+  <si>
+    <t>A.S/0046</t>
+  </si>
+  <si>
+    <t>A.S/0046-225</t>
+  </si>
+  <si>
+    <t>EP TIBURON 9</t>
   </si>
 </sst>
 </file>
@@ -1242,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C3AA09-1F79-4F4D-BB06-15A57FFB3161}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,6 +1446,40 @@
       </c>
       <c r="E10" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1335" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FEA7CD0-D1A1-4EBA-8CED-E4FBDDF2D3D7}"/>
+  <xr:revisionPtr revIDLastSave="1363" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{862730B4-CCEC-4FD2-8779-C882B29CC1B4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="278">
   <si>
     <t>Proyecto</t>
   </si>
@@ -827,6 +827,51 @@
   </si>
   <si>
     <t>EP TIBURON 9</t>
+  </si>
+  <si>
+    <t>A.S/0047-225</t>
+  </si>
+  <si>
+    <t>A.S/0047</t>
+  </si>
+  <si>
+    <t>CHATA EXALMAR</t>
+  </si>
+  <si>
+    <t>A.S/0049</t>
+  </si>
+  <si>
+    <t>A.S/0049-225</t>
+  </si>
+  <si>
+    <t>EP MODESTO 7</t>
+  </si>
+  <si>
+    <t>EP MODESTO 9</t>
+  </si>
+  <si>
+    <t>A.S/0050</t>
+  </si>
+  <si>
+    <t>A.S/0050-225</t>
+  </si>
+  <si>
+    <t>EP DON MILTON</t>
+  </si>
+  <si>
+    <t>A.S/0048</t>
+  </si>
+  <si>
+    <t>A.S/0048-225</t>
+  </si>
+  <si>
+    <t>EP DANIA</t>
+  </si>
+  <si>
+    <t>A.S/0051</t>
+  </si>
+  <si>
+    <t>A.S/0051-225</t>
   </si>
 </sst>
 </file>
@@ -1260,16 +1305,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C3AA09-1F79-4F4D-BB06-15A57FFB3161}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1480,6 +1526,91 @@
       </c>
       <c r="E12" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1363" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{862730B4-CCEC-4FD2-8779-C882B29CC1B4}"/>
+  <xr:revisionPtr revIDLastSave="1364" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A98A0A79-3496-4A56-B5F5-0E6959F0D5DB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -865,13 +865,13 @@
     <t>A.S/0048-225</t>
   </si>
   <si>
-    <t>EP DANIA</t>
-  </si>
-  <si>
     <t>A.S/0051</t>
   </si>
   <si>
     <t>A.S/0051-225</t>
+  </si>
+  <si>
+    <t>EP COQUI XV (EX DANIA)</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1601,16 +1601,16 @@
         <v>212</v>
       </c>
       <c r="B17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
         <v>275</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>276</v>
-      </c>
-      <c r="E17" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1364" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A98A0A79-3496-4A56-B5F5-0E6959F0D5DB}"/>
+  <xr:revisionPtr revIDLastSave="1371" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C5526F8-38A5-4AE5-8B7F-25B3F51C9392}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="281">
   <si>
     <t>Proyecto</t>
   </si>
@@ -872,6 +872,15 @@
   </si>
   <si>
     <t>EP COQUI XV (EX DANIA)</t>
+  </si>
+  <si>
+    <t>REM HUARI</t>
+  </si>
+  <si>
+    <t>A.S/0052</t>
+  </si>
+  <si>
+    <t>A.S/0052-225</t>
   </si>
 </sst>
 </file>
@@ -1305,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C3AA09-1F79-4F4D-BB06-15A57FFB3161}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1611,6 +1620,23 @@
       </c>
       <c r="E17" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1371" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C5526F8-38A5-4AE5-8B7F-25B3F51C9392}"/>
+  <xr:revisionPtr revIDLastSave="1377" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF025DCB-FB50-47E0-9067-D6BF9CF1B957}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="284">
   <si>
     <t>Proyecto</t>
   </si>
@@ -881,6 +881,15 @@
   </si>
   <si>
     <t>A.S/0052-225</t>
+  </si>
+  <si>
+    <t>EP TASA 56 ARBOLADURA</t>
+  </si>
+  <si>
+    <t>GP/89-225</t>
+  </si>
+  <si>
+    <t>GP/89</t>
   </si>
 </sst>
 </file>
@@ -1314,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C3AA09-1F79-4F4D-BB06-15A57FFB3161}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1637,6 +1646,23 @@
       </c>
       <c r="E18" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E19" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1377" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF025DCB-FB50-47E0-9067-D6BF9CF1B957}"/>
+  <xr:revisionPtr revIDLastSave="1400" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96DAB47E-4676-4DD0-B77D-C2F60D21288B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-2" sheetId="10" r:id="rId1"/>
-    <sheet name="desguace" sheetId="12" r:id="rId2"/>
-    <sheet name="2025-1" sheetId="9" r:id="rId3"/>
-    <sheet name="2024-2" sheetId="8" r:id="rId4"/>
-    <sheet name="2024-1" sheetId="6" r:id="rId5"/>
-    <sheet name="2023-2" sheetId="11" r:id="rId6"/>
+    <sheet name="2025-1" sheetId="9" r:id="rId2"/>
+    <sheet name="2024-2" sheetId="8" r:id="rId3"/>
+    <sheet name="2024-1" sheetId="6" r:id="rId4"/>
+    <sheet name="2023-2" sheetId="11" r:id="rId5"/>
+    <sheet name="Modulo" sheetId="13" r:id="rId6"/>
+    <sheet name="desguace" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="289">
   <si>
     <t>Proyecto</t>
   </si>
@@ -890,6 +891,21 @@
   </si>
   <si>
     <t>GP/89</t>
+  </si>
+  <si>
+    <t>Modulo</t>
+  </si>
+  <si>
+    <t>A.S/0037</t>
+  </si>
+  <si>
+    <t>A.S/0037-125</t>
+  </si>
+  <si>
+    <t>EP SAMA I</t>
+  </si>
+  <si>
+    <t>A.S/0037-225</t>
   </si>
 </sst>
 </file>
@@ -1325,14 +1341,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C3AA09-1F79-4F4D-BB06-15A57FFB3161}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="2" max="3" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1671,138 +1686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A90B3A0-EF1B-440D-B3D5-8495F9519A3D}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="B9:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2EAE93-250F-45C5-8452-04778CDF69D5}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2177,12 +2065,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31B70A-7AC0-4170-8EDB-19BFB91944E2}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G29"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2869,12 +2757,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE99D356-A7AD-4D03-BA66-90BB63C41FBC}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3286,54 +3174,20 @@
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" t="s">
-        <v>144</v>
-      </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" t="s">
-        <v>147</v>
-      </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D469D-263F-4468-BBFB-44CB0C55D551}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3408,4 +3262,246 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36C664E-B6C5-4289-80E5-BE01E283E5BC}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="27" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A90B3A0-EF1B-440D-B3D5-8495F9519A3D}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1400" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96DAB47E-4676-4DD0-B77D-C2F60D21288B}"/>
+  <xr:revisionPtr revIDLastSave="1430" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75499250-676A-4A03-AE25-D7F7C1B12237}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-2" sheetId="10" r:id="rId1"/>
-    <sheet name="2025-1" sheetId="9" r:id="rId2"/>
-    <sheet name="2024-2" sheetId="8" r:id="rId3"/>
-    <sheet name="2024-1" sheetId="6" r:id="rId4"/>
-    <sheet name="2023-2" sheetId="11" r:id="rId5"/>
-    <sheet name="Modulo" sheetId="13" r:id="rId6"/>
-    <sheet name="desguace" sheetId="12" r:id="rId7"/>
+    <sheet name="2026-1" sheetId="14" r:id="rId1"/>
+    <sheet name="2025-2" sheetId="10" r:id="rId2"/>
+    <sheet name="2025-1" sheetId="9" r:id="rId3"/>
+    <sheet name="2024-2" sheetId="8" r:id="rId4"/>
+    <sheet name="2024-1" sheetId="6" r:id="rId5"/>
+    <sheet name="2023-2" sheetId="11" r:id="rId6"/>
+    <sheet name="Modulo" sheetId="13" r:id="rId7"/>
+    <sheet name="desguace" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="308">
   <si>
     <t>Proyecto</t>
   </si>
@@ -906,6 +907,63 @@
   </si>
   <si>
     <t>A.S/0037-225</t>
+  </si>
+  <si>
+    <t>2026-1</t>
+  </si>
+  <si>
+    <t>CHATA GUANAY</t>
+  </si>
+  <si>
+    <t>GO/50</t>
+  </si>
+  <si>
+    <t>GO/50-126</t>
+  </si>
+  <si>
+    <t>CHATA TASA</t>
+  </si>
+  <si>
+    <t>GO/51</t>
+  </si>
+  <si>
+    <t>GO/51-126</t>
+  </si>
+  <si>
+    <t>REM LOBOS</t>
+  </si>
+  <si>
+    <t>A.S/0055</t>
+  </si>
+  <si>
+    <t>A.S/0055-126</t>
+  </si>
+  <si>
+    <t>EQUIPOS PRUBA DE ESTABILIDAD</t>
+  </si>
+  <si>
+    <t>GP/94</t>
+  </si>
+  <si>
+    <t>GP/94-126</t>
+  </si>
+  <si>
+    <t>EP TASA 414</t>
+  </si>
+  <si>
+    <t>GP/99</t>
+  </si>
+  <si>
+    <t>EP TASA 411</t>
+  </si>
+  <si>
+    <t>GP/97</t>
+  </si>
+  <si>
+    <t>GP/99-126</t>
+  </si>
+  <si>
+    <t>GP/97-126</t>
   </si>
 </sst>
 </file>
@@ -1338,6 +1396,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E48AC-9EDB-4CF6-8126-8AFAD8689F3B}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C3AA09-1F79-4F4D-BB06-15A57FFB3161}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -1685,7 +1924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2EAE93-250F-45C5-8452-04778CDF69D5}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -2065,7 +2304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31B70A-7AC0-4170-8EDB-19BFB91944E2}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -2757,7 +2996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE99D356-A7AD-4D03-BA66-90BB63C41FBC}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -3187,7 +3426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D469D-263F-4468-BBFB-44CB0C55D551}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3264,12 +3503,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36C664E-B6C5-4289-80E5-BE01E283E5BC}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3379,7 +3618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A90B3A0-EF1B-440D-B3D5-8495F9519A3D}">
   <dimension ref="A1:G6"/>
   <sheetViews>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1430" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75499250-676A-4A03-AE25-D7F7C1B12237}"/>
+  <xr:revisionPtr revIDLastSave="1435" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{273658B8-CB7B-4155-BD30-297CF3D271A0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2026-1" sheetId="14" r:id="rId1"/>
@@ -939,9 +939,6 @@
     <t>A.S/0055-126</t>
   </si>
   <si>
-    <t>EQUIPOS PRUBA DE ESTABILIDAD</t>
-  </si>
-  <si>
     <t>GP/94</t>
   </si>
   <si>
@@ -964,6 +961,9 @@
   </si>
   <si>
     <t>GP/97-126</t>
+  </si>
+  <si>
+    <t>EQUIPOS PRUEBA DE ESTABILIDAD</t>
   </si>
 </sst>
 </file>
@@ -1400,12 +1400,13 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1488,16 +1489,16 @@
         <v>289</v>
       </c>
       <c r="B5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>300</v>
-      </c>
-      <c r="E5" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1505,16 +1506,16 @@
         <v>289</v>
       </c>
       <c r="B6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" t="s">
-        <v>303</v>
-      </c>
       <c r="E6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1522,16 +1523,16 @@
         <v>289</v>
       </c>
       <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" t="s">
-        <v>305</v>
-      </c>
       <c r="E7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasaomega-my.sharepoint.com/personal/barevalo_tasa_com_pe1/Documents/Balois -2024/GITHUB CP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1435" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{273658B8-CB7B-4155-BD30-297CF3D271A0}"/>
+  <xr:revisionPtr revIDLastSave="1450" documentId="11_BB3868379BEBDFD1702DBB10282470997ACE9E53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{905D745C-1A0F-41F1-9BAF-788845677FCF}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="311">
   <si>
     <t>Proyecto</t>
   </si>
@@ -964,6 +964,15 @@
   </si>
   <si>
     <t>EQUIPOS PRUEBA DE ESTABILIDAD</t>
+  </si>
+  <si>
+    <t>A.S/0058-126</t>
+  </si>
+  <si>
+    <t>A.S/0058</t>
+  </si>
+  <si>
+    <t>CHATA ICACSA</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1409,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1536,7 +1545,21 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
+      <c r="A8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
